--- a/data/game001/bgmysteryweight.xlsx
+++ b/data/game001/bgmysteryweight.xlsx
@@ -40,7 +40,7 @@
     <t>L4</t>
   </si>
   <si>
-    <t>LN</t>
+    <t>LIGHTNING</t>
   </si>
   <si>
     <t>SH1</t>
@@ -92,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -160,6 +160,28 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -212,6 +234,24 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -289,6 +329,28 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -300,7 +362,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -319,17 +381,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -337,16 +399,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1429,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1437,7 +1517,8 @@
   <cols>
     <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="5" hidden="1" width="16.3333" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1">
@@ -1450,116 +1531,138 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" ht="14.6" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="A2" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>732</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" ht="14.6" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>765</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" ht="14.6" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>793</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="14.6" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>1530</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" ht="14.6" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>1530</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="14.6" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="A7" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>1530</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="A8" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>1530</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" ht="14.6" customHeight="1">
-      <c r="A9" t="s" s="6">
+      <c r="A9" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>855</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" ht="15.1" customHeight="1">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>523</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" ht="15.1" customHeight="1">
-      <c r="A11" t="s" s="12">
+      <c r="A11" t="s" s="16">
         <v>11</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="17">
         <v>212</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
